--- a/mcmaster_excel/Metric_18-8_Stainless_Steel_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_18-8_Stainless_Steel_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,263 +434,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FlangeDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>97654A673</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$5.28</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>FlangeDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Size,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>97654A674</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>97654A675</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -700,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,19 +619,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>97654A676</t>
+          <t>97654A673</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>$5.28</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -767,7 +637,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -812,19 +682,15 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>97654A677</t>
+          <t>97654A674</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -834,7 +700,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -879,19 +745,15 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>97654A205</t>
+          <t>97654A675</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -901,7 +763,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,19 +808,15 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>97654A206</t>
+          <t>97654A676</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -968,7 +826,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,19 +871,15 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>97654A207</t>
+          <t>97654A677</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1035,7 +889,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,19 +934,15 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>97654A208</t>
+          <t>97654A205</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.52</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1102,7 +952,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,19 +997,15 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>97654A209</t>
+          <t>97654A206</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1169,7 +1015,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1179,12 +1025,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1194,7 +1040,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1209,24 +1055,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>97654A681</t>
+          <t>97654A207</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1236,7 +1078,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1246,12 +1088,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1261,7 +1103,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1276,24 +1118,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>97654A371</t>
+          <t>97654A208</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1303,7 +1141,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1313,12 +1151,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1328,7 +1166,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1343,24 +1181,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>97654A372</t>
+          <t>97654A209</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1370,64 +1204,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>97654A373</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1437,7 +1227,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1477,24 +1267,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>97654A374</t>
+          <t>97654A681</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1504,7 +1290,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1544,24 +1330,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>97654A211</t>
+          <t>97654A371</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1571,7 +1353,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1606,7 +1388,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1616,19 +1398,15 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>97654A660</t>
+          <t>97654A372</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1638,7 +1416,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1678,24 +1456,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>97654A212</t>
+          <t>97654A373</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1705,7 +1479,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1740,7 +1514,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1750,19 +1524,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>97654A661</t>
+          <t>97654A374</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1772,7 +1542,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,19 +1587,15 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>97654A213</t>
+          <t>97654A211</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1839,7 +1605,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,19 +1650,15 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>97654A662</t>
+          <t>97654A660</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1906,7 +1668,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1951,19 +1713,15 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>97654A214</t>
+          <t>97654A212</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1973,7 +1731,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2008,29 +1766,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>97654A215</t>
+          <t>97654A661</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10.36</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2040,7 +1794,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2085,19 +1839,15 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>97654A216</t>
+          <t>97654A213</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19.78</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2107,7 +1857,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2117,12 +1867,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2132,7 +1882,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2142,29 +1892,25 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>97654A678</t>
+          <t>97654A662</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10.52</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2174,7 +1920,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2184,12 +1930,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2199,7 +1945,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2214,24 +1960,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>97654A375</t>
+          <t>97654A214</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13.69</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2241,7 +1983,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2251,12 +1993,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2266,7 +2008,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2281,24 +2023,20 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>97654A376</t>
+          <t>97654A215</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2308,7 +2046,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2318,12 +2056,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2333,7 +2071,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2348,24 +2086,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>97654A377</t>
+          <t>97654A216</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>14.12</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2375,64 +2109,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>97654A217</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2442,7 +2132,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2477,29 +2167,25 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>97654A663</t>
+          <t>97654A678</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2509,7 +2195,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2549,24 +2235,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>97654A218</t>
+          <t>97654A375</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>10.74</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2576,7 +2258,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2611,29 +2293,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>97654A664</t>
+          <t>97654A376</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2643,7 +2321,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2683,24 +2361,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>97654A219</t>
+          <t>97654A377</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2710,7 +2384,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2745,29 +2419,25 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>97654A665</t>
+          <t>97654A217</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>11.35</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2777,7 +2447,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2812,29 +2482,25 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>97654A221</t>
+          <t>97654A663</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2844,7 +2510,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2889,19 +2555,15 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>97654A222</t>
+          <t>97654A218</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2911,7 +2573,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2946,29 +2608,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>97654A223</t>
+          <t>97654A664</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>15.18</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2978,7 +2636,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2988,12 +2646,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3003,7 +2661,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3018,24 +2676,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>97654A682</t>
+          <t>97654A219</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3045,7 +2699,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3055,12 +2709,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3070,7 +2724,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3080,7 +2734,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3090,19 +2744,15 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>97654A378</t>
+          <t>97654A665</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3112,7 +2762,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3122,12 +2772,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3137,7 +2787,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3152,24 +2802,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>97654A379</t>
+          <t>97654A221</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3179,7 +2825,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3189,12 +2835,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3204,7 +2850,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3219,24 +2865,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>97654A380</t>
+          <t>97654A222</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3246,7 +2888,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3256,12 +2898,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3271,7 +2913,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3291,19 +2933,15 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>97654A679</t>
+          <t>97654A223</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3313,64 +2951,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>97654A381</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3380,7 +2974,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3420,24 +3014,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>97654A224</t>
+          <t>97654A682</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18.06</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3447,7 +3037,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3492,19 +3082,15 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>97654A382</t>
+          <t>97654A378</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3514,7 +3100,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3554,24 +3140,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>97654A225</t>
+          <t>97654A379</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3581,7 +3163,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3616,29 +3198,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>97654A666</t>
+          <t>97654A380</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3648,7 +3226,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3683,29 +3261,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>97654A667</t>
+          <t>97654A679</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3715,7 +3289,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3755,24 +3329,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>97654A226</t>
+          <t>97654A381</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>13.76</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3782,7 +3352,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3817,29 +3387,25 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>97654A668</t>
+          <t>97654A224</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3849,7 +3415,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3889,24 +3455,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>97654A227</t>
+          <t>97654A382</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>15.19</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3916,64 +3478,60 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>97654A228</t>
+          <t>97654A225</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3983,7 +3541,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3993,12 +3551,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4008,39 +3566,35 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>97654A683</t>
+          <t>97654A666</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4050,7 +3604,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4060,12 +3614,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4075,39 +3629,35 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>97654A680</t>
+          <t>97654A667</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13.83</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4117,7 +3667,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4127,12 +3677,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4142,7 +3692,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4157,24 +3707,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>97654A383</t>
+          <t>97654A226</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>11.83</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4184,7 +3730,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4194,12 +3740,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4209,39 +3755,35 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>97654A384</t>
+          <t>97654A668</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4251,7 +3793,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4261,12 +3803,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4276,7 +3818,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4296,19 +3838,15 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>97654A229</t>
+          <t>97654A227</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4318,64 +3856,60 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>17.80</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>97654A385</t>
+          <t>97654A228</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13.65</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4385,64 +3919,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>17.80</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>97654A386</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4452,7 +3942,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4497,19 +3987,15 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>97654A231</t>
+          <t>97654A683</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4519,7 +4005,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4554,29 +4040,25 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>97654A669</t>
+          <t>97654A680</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4586,7 +4068,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4631,19 +4113,15 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>97654A232</t>
+          <t>97654A383</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4653,7 +4131,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4698,19 +4176,15 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>97654A233</t>
+          <t>97654A384</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>12.18</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4720,7 +4194,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4730,12 +4204,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4745,7 +4219,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4760,24 +4234,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>97654A201</t>
+          <t>97654A229</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4787,7 +4257,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4797,12 +4267,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4812,7 +4282,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4827,24 +4297,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>97654A202</t>
+          <t>97654A385</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4854,7 +4320,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4864,12 +4330,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4879,7 +4345,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4889,29 +4355,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>97654A670</t>
+          <t>97654A386</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4921,7 +4383,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4931,12 +4393,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4946,7 +4408,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4956,29 +4418,25 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>97654A671</t>
+          <t>97654A231</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4988,7 +4446,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4998,12 +4456,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5013,7 +4471,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5028,24 +4486,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>97654A672</t>
+          <t>97654A669</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -5055,7 +4509,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5065,12 +4519,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5080,7 +4534,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5095,24 +4549,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>97654A203</t>
+          <t>97654A232</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -5122,65 +4572,525 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>97654A233</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>97654A201</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>97654A202</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>97654A670</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>97654A671</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>97654A672</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>97654A203</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>5.50</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>97654A204</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
